--- a/design/test.xlsx
+++ b/design/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrls\OneDrive\学校事务\第四学期\综合应用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrls\Documents\repo\nblog\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="21600" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -545,64 +545,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -618,26 +572,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,7 +876,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -934,7 +888,7 @@
     <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -951,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -966,7 +920,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -981,7 +935,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -996,7 +950,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1011,7 +965,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1026,7 +980,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1041,7 +995,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1056,7 +1010,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1071,7 +1025,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1081,10 +1035,10 @@
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1099,7 +1053,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1114,7 +1068,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1129,7 +1083,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1144,7 +1098,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1157,9 +1111,9 @@
       <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1174,7 +1128,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1189,7 +1143,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1204,7 +1158,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1219,7 +1173,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1234,7 +1188,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1249,7 +1203,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1264,7 +1218,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1279,7 +1233,7 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1294,7 +1248,7 @@
       </c>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1309,7 +1263,7 @@
       </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1324,7 +1278,7 @@
       </c>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1339,7 +1293,7 @@
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1354,7 +1308,7 @@
       </c>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1369,7 +1323,7 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1384,7 +1338,7 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1399,55 +1353,59 @@
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>33</v>
       </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/design/test.xlsx
+++ b/design/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrls\Documents\repo\nblog\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repo\nblog\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="21600" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="21600" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -464,6 +464,10 @@
   </si>
   <si>
     <t>新建一个带图的文章</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -516,7 +520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,12 +530,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF36923A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,17 +579,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,7 +871,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -918,7 +913,9 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
@@ -933,7 +930,9 @@
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
@@ -948,7 +947,9 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
@@ -963,7 +964,9 @@
       <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
@@ -978,7 +981,9 @@
       <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
@@ -993,7 +998,9 @@
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
@@ -1008,7 +1015,9 @@
       <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
@@ -1023,7 +1032,9 @@
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -1036,7 +1047,9 @@
         <v>19</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
@@ -1051,7 +1064,9 @@
       <c r="D11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
@@ -1066,7 +1081,9 @@
       <c r="D12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
@@ -1081,7 +1098,9 @@
       <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -1096,7 +1115,9 @@
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
@@ -1111,7 +1132,9 @@
       <c r="D15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -1126,7 +1149,9 @@
       <c r="D16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
@@ -1141,7 +1166,9 @@
       <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -1156,7 +1183,9 @@
       <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
@@ -1171,7 +1200,9 @@
       <c r="D19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
@@ -1186,7 +1217,9 @@
       <c r="D20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
@@ -1201,7 +1234,9 @@
       <c r="D21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
@@ -1216,7 +1251,9 @@
       <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -1231,7 +1268,9 @@
       <c r="D23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
@@ -1246,7 +1285,9 @@
       <c r="D24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
@@ -1261,7 +1302,9 @@
       <c r="D25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
@@ -1276,7 +1319,9 @@
       <c r="D26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
@@ -1291,7 +1336,9 @@
       <c r="D27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
@@ -1306,7 +1353,9 @@
       <c r="D28" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
@@ -1321,7 +1370,9 @@
       <c r="D29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
@@ -1336,7 +1387,9 @@
       <c r="D30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
@@ -1351,61 +1404,69 @@
       <c r="D31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/design/test.xlsx
+++ b/design/test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repo\nblog\design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrls\Documents\repo\nblog\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="21600" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="21600" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -468,6 +468,10 @@
   </si>
   <si>
     <t>✔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>博客页面</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -871,7 +875,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1046,7 +1050,9 @@
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="E10" s="7" t="s">
         <v>63</v>
       </c>
